--- a/data/model_std_hour.xlsx
+++ b/data/model_std_hour.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>model_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,16 +24,91 @@
   <si>
     <t>SAH</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN-5170</t>
+  </si>
+  <si>
+    <t>PN-5184</t>
+  </si>
+  <si>
+    <t>PN-5218</t>
+  </si>
+  <si>
+    <t>PN-4842</t>
+  </si>
+  <si>
+    <t>PN-5214</t>
+  </si>
+  <si>
+    <t>PN-5202</t>
+  </si>
+  <si>
+    <t>PN-4756-2</t>
+  </si>
+  <si>
+    <t>PN-5156</t>
+  </si>
+  <si>
+    <t>PN-5255</t>
+  </si>
+  <si>
+    <t>PN-5253</t>
+  </si>
+  <si>
+    <t>PN-5450</t>
+  </si>
+  <si>
+    <t>PN-5448</t>
+  </si>
+  <si>
+    <t>PN-5192</t>
+  </si>
+  <si>
+    <t>PN-5139</t>
+  </si>
+  <si>
+    <t>PN-5082</t>
+  </si>
+  <si>
+    <t>PN-4981</t>
+  </si>
+  <si>
+    <t>PN-4764</t>
+  </si>
+  <si>
+    <t>PN-4756</t>
+  </si>
+  <si>
+    <t>PN-5368</t>
+  </si>
+  <si>
+    <t>PN-5446</t>
+  </si>
+  <si>
+    <t>PN-5318</t>
+  </si>
+  <si>
+    <t>PN-5121</t>
+  </si>
+  <si>
+    <t>PN-4996</t>
+  </si>
+  <si>
+    <t>PN-5582</t>
+  </si>
+  <si>
+    <t>PN-5258</t>
+  </si>
+  <si>
+    <t>PN-5028</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,73 +124,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -124,55 +147,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -486,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -503,132 +486,220 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>8484769</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.33500000000000002</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>7639.6315494451374</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>8495212</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.55000000000000004</v>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3033.3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5">
-        <v>8496248</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.44</v>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1867.2954297634437</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5">
-        <v>8496249</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.44</v>
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>785.07</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6">
-        <v>8504465</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.73599999999999999</v>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1096.84427138416</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7">
-        <v>8505447</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.52</v>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2114.8672502559425</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3">
-        <v>8506442</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.17699999999999999</v>
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2525.54</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6">
-        <v>8512008</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.19400000000000001</v>
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3552.5006034437474</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6">
-        <v>8512009</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.152</v>
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1636.1262673715701</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
-        <v>8514768</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.32800000000000001</v>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1043.9644727272728</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5">
-        <v>8516668</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0.25800000000000001</v>
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>839.37670498643001</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7">
-        <v>8525014</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.1</v>
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>898.82898351753499</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7">
-        <v>8525032</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.3</v>
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1145.6323470206607</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
-        <v>8527540</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.33500000000000002</v>
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5">
-        <v>8542737</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.44</v>
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1311.8749761576125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>821.36406800924863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>464.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2472.4551307485799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1909.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2826.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>270.98738425041984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>725.97050000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>128.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>835.14919096188805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>684.8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:B16">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>LEN($Z2)+LEN($AA2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>(TODAY()-TEXT($Z2,"0000-00-00")&gt;=0)*(TEXT($AA2,"0000-00-00")-TODAY()&gt;=0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/model_std_hour.xlsx
+++ b/data/model_std_hour.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>model_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>PN-5028</t>
+  </si>
+  <si>
+    <t>PN-5081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -469,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -691,6 +695,14 @@
       </c>
       <c r="B27">
         <v>684.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1114.0999999999999</v>
       </c>
     </row>
   </sheetData>
